--- a/data/trans_orig/P14A06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{127BEEB6-ED32-4F4A-95ED-26CA87FA5E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECBE3C6-596F-478C-962E-A39FAE9DEA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23FF2C0D-AF40-4DE5-9E11-B9D66FD9EDA8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46276D20-2135-49E8-8352-2E38462031A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="166">
   <si>
     <t>Población que recibe medicación o terapia por úlcera de estómago en 2012 (Tasa respuesta: 1,17%)</t>
   </si>
@@ -84,10 +84,10 @@
     <t>73,01%</t>
   </si>
   <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -102,19 +102,19 @@
     <t>84,43%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -129,10 +129,10 @@
     <t>15,57%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -153,13 +153,13 @@
     <t>73,24%</t>
   </si>
   <si>
-    <t>27,63%</t>
+    <t>36,46%</t>
   </si>
   <si>
     <t>77,4%</t>
   </si>
   <si>
-    <t>42,97%</t>
+    <t>41,69%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -168,13 +168,13 @@
     <t>26,76%</t>
   </si>
   <si>
-    <t>72,37%</t>
+    <t>63,54%</t>
   </si>
   <si>
     <t>22,6%</t>
   </si>
   <si>
-    <t>57,03%</t>
+    <t>58,31%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -231,7 +231,7 @@
     <t>34,61%</t>
   </si>
   <si>
-    <t>83,88%</t>
+    <t>84,04%</t>
   </si>
   <si>
     <t>67,83%</t>
@@ -243,16 +243,16 @@
     <t>51,64%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>65,39%</t>
   </si>
   <si>
-    <t>16,12%</t>
+    <t>15,96%</t>
   </si>
   <si>
     <t>32,17%</t>
@@ -264,10 +264,10 @@
     <t>48,36%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -276,7 +276,7 @@
     <t>81,54%</t>
   </si>
   <si>
-    <t>49,5%</t>
+    <t>49,29%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -285,13 +285,13 @@
     <t>90,31%</t>
   </si>
   <si>
-    <t>69,62%</t>
+    <t>68,52%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>50,5%</t>
+    <t>50,71%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -300,55 +300,61 @@
     <t>9,69%</t>
   </si>
   <si>
-    <t>30,38%</t>
+    <t>31,48%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>54,79%</t>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>45,21%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -940,7 +946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD88AAB-4DC6-4470-97C1-58BF9A5320DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC4776C-006F-4F24-AD77-9C329FC556F1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2286,7 +2292,7 @@
         <v>89</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -2295,13 +2301,13 @@
         <v>36275</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M28" s="7">
         <v>59</v>
@@ -2310,13 +2316,13 @@
         <v>64420</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2337,13 @@
         <v>12428</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2346,13 +2352,13 @@
         <v>5839</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -2361,13 +2367,13 @@
         <v>18267</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,7 +2429,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F17D7A-B35E-4E51-AA83-3C4E2A2A9661}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161196BA-8F1A-4C3A-9582-FA08ADC36746}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2464,7 +2470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2726,10 +2732,10 @@
         <v>4291</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>17</v>
@@ -2741,10 +2747,10 @@
         <v>3054</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>17</v>
@@ -2756,13 +2762,13 @@
         <v>7346</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2783,13 @@
         <v>1132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2792,13 +2798,13 @@
         <v>2094</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2807,13 +2813,13 @@
         <v>3226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2900,7 @@
         <v>1003</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>26</v>
@@ -2909,7 +2915,7 @@
         <v>1003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>26</v>
@@ -2943,7 +2949,7 @@
         <v>929</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>26</v>
@@ -2958,7 +2964,7 @@
         <v>929</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>26</v>
@@ -3045,7 +3051,7 @@
         <v>2050</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>26</v>
@@ -3060,7 +3066,7 @@
         <v>2050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>26</v>
@@ -3096,7 +3102,7 @@
         <v>974</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>26</v>
@@ -3111,7 +3117,7 @@
         <v>2738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>26</v>
@@ -3355,10 +3361,10 @@
         <v>3425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>17</v>
@@ -3370,10 +3376,10 @@
         <v>4232</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>17</v>
@@ -3406,13 +3412,13 @@
         <v>960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3421,13 +3427,13 @@
         <v>960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,10 +3501,10 @@
         <v>3076</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>17</v>
@@ -3525,10 +3531,10 @@
         <v>10461</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>17</v>
@@ -3546,13 +3552,13 @@
         <v>1049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3576,13 +3582,13 @@
         <v>1049</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,10 +3686,10 @@
         <v>8216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>17</v>
@@ -3731,13 +3737,13 @@
         <v>1135</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3811,13 @@
         <v>10169</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -3820,13 +3826,13 @@
         <v>29309</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -3835,13 +3841,13 @@
         <v>39479</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3862,13 @@
         <v>5080</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3871,13 +3877,13 @@
         <v>4957</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -3886,13 +3892,13 @@
         <v>10036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3954,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A06-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECBE3C6-596F-478C-962E-A39FAE9DEA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2FC8F38-79DC-466F-97EF-63E60B9BAFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46276D20-2135-49E8-8352-2E38462031A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A2EB4BE-7158-41C3-AE48-E69613AD1EAC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,10 +84,10 @@
     <t>73,01%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -102,19 +102,19 @@
     <t>84,43%</t>
   </si>
   <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -129,10 +129,10 @@
     <t>15,57%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -153,13 +153,13 @@
     <t>73,24%</t>
   </si>
   <si>
-    <t>36,46%</t>
+    <t>28,75%</t>
   </si>
   <si>
     <t>77,4%</t>
   </si>
   <si>
-    <t>41,69%</t>
+    <t>38,67%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -168,13 +168,13 @@
     <t>26,76%</t>
   </si>
   <si>
-    <t>63,54%</t>
+    <t>71,25%</t>
   </si>
   <si>
     <t>22,6%</t>
   </si>
   <si>
-    <t>58,31%</t>
+    <t>61,33%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -192,7 +192,7 @@
     <t>33,17%</t>
   </si>
   <si>
-    <t>82,28%</t>
+    <t>82,31%</t>
   </si>
   <si>
     <t>60,34%</t>
@@ -207,7 +207,7 @@
     <t>66,83%</t>
   </si>
   <si>
-    <t>17,72%</t>
+    <t>17,69%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -231,43 +231,43 @@
     <t>34,61%</t>
   </si>
   <si>
-    <t>84,04%</t>
+    <t>82,95%</t>
   </si>
   <si>
     <t>67,83%</t>
   </si>
   <si>
-    <t>18,64%</t>
+    <t>17,79%</t>
   </si>
   <si>
     <t>51,64%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>65,39%</t>
   </si>
   <si>
-    <t>15,96%</t>
+    <t>17,05%</t>
   </si>
   <si>
     <t>32,17%</t>
   </si>
   <si>
-    <t>81,36%</t>
+    <t>82,21%</t>
   </si>
   <si>
     <t>48,36%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -276,7 +276,7 @@
     <t>81,54%</t>
   </si>
   <si>
-    <t>49,29%</t>
+    <t>45,16%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -285,13 +285,13 @@
     <t>90,31%</t>
   </si>
   <si>
-    <t>68,52%</t>
+    <t>69,82%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>50,71%</t>
+    <t>54,84%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -300,73 +300,73 @@
     <t>9,69%</t>
   </si>
   <si>
-    <t>31,48%</t>
+    <t>30,18%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por úlcera de estómago en 2015 (Tasa respuesta: 0,69%)</t>
+    <t>Población que recibe medicación o terapia por úlcera de estómago en 2016 (Tasa respuesta: 0,69%)</t>
   </si>
   <si>
     <t>79,13%</t>
   </si>
   <si>
-    <t>32,6%</t>
+    <t>18,52%</t>
   </si>
   <si>
     <t>59,33%</t>
@@ -378,16 +378,16 @@
     <t>69,49%</t>
   </si>
   <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>20,87%</t>
   </si>
   <si>
-    <t>67,4%</t>
+    <t>81,48%</t>
   </si>
   <si>
     <t>40,67%</t>
@@ -399,10 +399,10 @@
     <t>30,51%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
   </si>
   <si>
     <t>51,91%</t>
@@ -432,7 +432,7 @@
     <t>81,51%</t>
   </si>
   <si>
-    <t>23,98%</t>
+    <t>24,7%</t>
   </si>
   <si>
     <t>21,89%</t>
@@ -444,58 +444,58 @@
     <t>18,49%</t>
   </si>
   <si>
-    <t>76,02%</t>
+    <t>75,3%</t>
   </si>
   <si>
     <t>74,57%</t>
   </si>
   <si>
-    <t>22,2%</t>
+    <t>17,65%</t>
   </si>
   <si>
     <t>90,89%</t>
   </si>
   <si>
-    <t>60,24%</t>
+    <t>60,93%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>77,8%</t>
+    <t>82,35%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>39,76%</t>
+    <t>39,07%</t>
   </si>
   <si>
     <t>87,87%</t>
   </si>
   <si>
-    <t>49,42%</t>
+    <t>48,46%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>50,58%</t>
+    <t>51,54%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>70,12%</t>
+    <t>68,14%</t>
   </si>
   <si>
     <t>94,46%</t>
@@ -504,19 +504,19 @@
     <t>79,73%</t>
   </si>
   <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
   </si>
   <si>
     <t>14,47%</t>
@@ -525,16 +525,16 @@
     <t>5,54%</t>
   </si>
   <si>
-    <t>29,88%</t>
+    <t>31,86%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
 </sst>
 </file>
@@ -946,7 +946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC4776C-006F-4F24-AD77-9C329FC556F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA27C70-6714-44D2-9A62-D516CDFDEEFA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2453,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161196BA-8F1A-4C3A-9582-FA08ADC36746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C43C2E-28C6-4AC9-A0C8-FEB085DD3C13}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
